--- a/terms/pelvisTerms.xlsx
+++ b/terms/pelvisTerms.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046C223-0697-1548-A0EB-FE1D4BB55FBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53369868-BF04-6E4D-8EC3-AE3F7D6D71EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2200" windowWidth="27240" windowHeight="15940" activeTab="1" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -52,17 +54,191 @@
     <t>Scott 1990</t>
   </si>
   <si>
-    <t>Pelvis length of acetabulum</t>
-  </si>
-  <si>
-    <t>Pelvis length of acetabulum using the reverse side of the calipers</t>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>LFo</t>
+  </si>
+  <si>
+    <t>GBTc</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>GBTi</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>greatest length</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>Pelvis length of acetabulum including the lip</t>
+  </si>
+  <si>
+    <t>not in horses and pigs</t>
+  </si>
+  <si>
+    <t>in horses and pigs</t>
+  </si>
+  <si>
+    <t>pelvis symphsis length</t>
+  </si>
+  <si>
+    <t>smallest height of shaft of ilium</t>
+  </si>
+  <si>
+    <t>smallest breadth of shaaft of ilium</t>
+  </si>
+  <si>
+    <t>smallest circumference of shaft of ilium</t>
+  </si>
+  <si>
+    <t>inner length of foramen obturatum</t>
+  </si>
+  <si>
+    <t>greatest breadth across tubera coxarum</t>
+  </si>
+  <si>
+    <t>greatest breadth across acetabula</t>
+  </si>
+  <si>
+    <t>greatest breadth of tubera ischiadica</t>
+  </si>
+  <si>
+    <t>smallest breadth across the bodies of hte ischia</t>
+  </si>
+  <si>
+    <t>Pelvis length of acetabulum on the rim; diameter of acetabulum</t>
+  </si>
+  <si>
+    <t>pelvis length</t>
+  </si>
+  <si>
+    <t>acetabulum length</t>
+  </si>
+  <si>
+    <t>acetabulum (to the rim) length</t>
+  </si>
+  <si>
+    <t>acetabulum (including the lip) length</t>
+  </si>
+  <si>
+    <t>pelvis synthesis length</t>
+  </si>
+  <si>
+    <t>shaft of ilium height</t>
+  </si>
+  <si>
+    <t>shaft of ilium breadth</t>
+  </si>
+  <si>
+    <t>shaft of ilium circumference</t>
+  </si>
+  <si>
+    <t>foramen obturatum length</t>
+  </si>
+  <si>
+    <t>tubera coxarum breadth</t>
+  </si>
+  <si>
+    <t>acetabula breadth</t>
+  </si>
+  <si>
+    <t>tubera ischiadica breadth</t>
+  </si>
+  <si>
+    <t>ischia breadth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +250,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -97,9 +286,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE79497-B1E0-6F4B-B3A6-153C376616F6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,15 +638,154 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -464,15 +794,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D975CF9-06D0-2D4C-8B77-2F5F54813A7F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7929AA-F3E1-154B-A335-23682B090A81}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB60FD1-5962-E64C-A0AF-EDCC1C415E7C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D975CF9-06D0-2D4C-8B77-2F5F54813A7F}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/pelvisTerms.xlsx
+++ b/terms/pelvisTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53369868-BF04-6E4D-8EC3-AE3F7D6D71EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE178F3E-9AE5-A743-A112-6CFB0113E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE79497-B1E0-6F4B-B3A6-153C376616F6}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,13 +795,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7929AA-F3E1-154B-A335-23682B090A81}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -815,6 +818,71 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/terms/pelvisTerms.xlsx
+++ b/terms/pelvisTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE178F3E-9AE5-A743-A112-6CFB0113E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308386F0-AD3A-064C-A16F-5DB9131CD192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -232,6 +232,30 @@
   </si>
   <si>
     <t>ischia breadth</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>proximal-most acetabular rim</t>
+  </si>
+  <si>
+    <t>distal-most acetabular rim</t>
+  </si>
+  <si>
+    <t>Not including the rim (IMPORTANT TO NOTE HERE)</t>
+  </si>
+  <si>
+    <t>bone of pelvis</t>
+  </si>
+  <si>
+    <t>acetabular part of hip bone</t>
+  </si>
+  <si>
+    <t>proximal-most acetabular part of hip bone</t>
+  </si>
+  <si>
+    <t>distal-most acetabular part of hip bone</t>
   </si>
 </sst>
 </file>
@@ -795,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7929AA-F3E1-154B-A335-23682B090A81}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,64 +848,66 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -892,10 +918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB60FD1-5962-E64C-A0AF-EDCC1C415E7C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,6 +941,31 @@
       </c>
       <c r="E1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/terms/pelvisTerms.xlsx
+++ b/terms/pelvisTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308386F0-AD3A-064C-A16F-5DB9131CD192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23813DBD-8609-B448-BF3F-2825976F61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{B87B9758-12F3-EB43-B7F0-7CE57CABE0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>distal-most acetabular part of hip bone</t>
+  </si>
+  <si>
+    <t>This includes the three bones of the pelvis: the pubis, ischium, and ilium</t>
+  </si>
+  <si>
+    <t>pubic symphsis</t>
+  </si>
+  <si>
+    <t>ilium shaft</t>
+  </si>
+  <si>
+    <t>obtruartor foramen</t>
+  </si>
+  <si>
+    <t>tubera coxarum</t>
+  </si>
+  <si>
+    <t>tubera ischiadica</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>circumfernce and ('inheres in' some 'shaft of ilium')</t>
   </si>
 </sst>
 </file>
@@ -632,7 +656,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,6 +780,9 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -814,15 +841,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7929AA-F3E1-154B-A335-23682B090A81}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +858,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -844,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -854,8 +882,11 @@
       <c r="C2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -866,53 +897,79 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
         <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -920,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB60FD1-5962-E64C-A0AF-EDCC1C415E7C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -975,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D975CF9-06D0-2D4C-8B77-2F5F54813A7F}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,6 +1087,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
